--- a/ig/ch-epr-term/ValueSet-DocumentEntry.formatCode.xlsx
+++ b/ig/ch-epr-term/ValueSet-DocumentEntry.formatCode.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>Property</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.8</t>
+    <t>2.0.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -68,7 +68,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T08:04:16+01:00</t>
+    <t>2023-06-27T18:08:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -121,6 +121,12 @@
     <t>Unstructured EPR document</t>
   </si>
   <si>
+    <t>urn:che:epr:ch-emed:medication-card:2023</t>
+  </si>
+  <si>
+    <t>CH EMED Medication Card document</t>
+  </si>
+  <si>
     <t>urn:che:epr:ch-vacd:immunization-administration:2022</t>
   </si>
   <si>
@@ -160,64 +166,64 @@
     <t>XDS-I Imaging Report with Structured Headings (XDS-I)</t>
   </si>
   <si>
+    <t>urn:ihe:iti:xds-sd:text:2008</t>
+  </si>
+  <si>
+    <t>Scanned Documents (text)</t>
+  </si>
+  <si>
+    <t>urn:ihe:pharm:pml:2013</t>
+  </si>
+  <si>
+    <t>Community Medication List</t>
+  </si>
+  <si>
+    <t>urn:ihe:pharm:pre:2010</t>
+  </si>
+  <si>
+    <t>Community Prescription</t>
+  </si>
+  <si>
+    <t>urn:ihe:pharm:dis:2010</t>
+  </si>
+  <si>
+    <t>Community Dispense</t>
+  </si>
+  <si>
+    <t>urn:ihe:pharm:mtp:2015</t>
+  </si>
+  <si>
+    <t>Community Medication Treatment Plan</t>
+  </si>
+  <si>
+    <t>urn:ihe:pharm:padv:2010</t>
+  </si>
+  <si>
+    <t>Community Pharmaceutical Advice</t>
+  </si>
+  <si>
+    <t>urn:ihe:lab:xd-lab:2008</t>
+  </si>
+  <si>
+    <t>CDA Laboratory Report</t>
+  </si>
+  <si>
+    <t>urn:ihe:pcc:ic:2009</t>
+  </si>
+  <si>
+    <t>Immunization Content (IC)</t>
+  </si>
+  <si>
+    <t>urn:ihe:iti:xds:2017:mimeTypeSufficient</t>
+  </si>
+  <si>
+    <t>MimeType sufficient</t>
+  </si>
+  <si>
     <t>urn:ihe:iti:xds-sd:pdf:2008</t>
   </si>
   <si>
     <t>Scanned Documents (PDF)</t>
-  </si>
-  <si>
-    <t>urn:ihe:iti:xds-sd:text:2008</t>
-  </si>
-  <si>
-    <t>Scanned Documents (text)</t>
-  </si>
-  <si>
-    <t>urn:ihe:pharm:pml:2013</t>
-  </si>
-  <si>
-    <t>Community Medication List</t>
-  </si>
-  <si>
-    <t>urn:ihe:pharm:pre:2010</t>
-  </si>
-  <si>
-    <t>Community Prescription</t>
-  </si>
-  <si>
-    <t>urn:ihe:pharm:dis:2010</t>
-  </si>
-  <si>
-    <t>Community Dispense</t>
-  </si>
-  <si>
-    <t>urn:ihe:pharm:mtp:2015</t>
-  </si>
-  <si>
-    <t>Community Medication Treatment Plan</t>
-  </si>
-  <si>
-    <t>urn:ihe:pharm:padv:2010</t>
-  </si>
-  <si>
-    <t>Community Pharmaceutical Advice</t>
-  </si>
-  <si>
-    <t>urn:ihe:lab:xd-lab:2008</t>
-  </si>
-  <si>
-    <t>CDA Laboratory Report</t>
-  </si>
-  <si>
-    <t>urn:ihe:pcc:ic:2009</t>
-  </si>
-  <si>
-    <t>Immunization Content (IC)</t>
-  </si>
-  <si>
-    <t>urn:ihe:iti:xds:2017:mimeTypeSufficient</t>
-  </si>
-  <si>
-    <t>MimeType sufficient</t>
   </si>
   <si>
     <t>http://ihe.net/fhir/ihe.formatcode.fhir/CodeSystem/formatcode</t>
@@ -351,10 +357,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -506,7 +512,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -553,15 +559,23 @@
         <v>38</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -591,122 +605,122 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -736,26 +750,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-epr-term/ValueSet-DocumentEntry.formatCode.xlsx
+++ b/ig/ch-epr-term/ValueSet-DocumentEntry.formatCode.xlsx
@@ -32,13 +32,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:2.16.756.5.30.1.127.3.10.1.9 (use: OFFICIAL)</t>
+    <t>id: Uniform Resource Identifier (URI)#urn:oid:2.16.756.5.30.1.127.3.10.1.9 (use: OFFICIAL)</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.0.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -68,7 +68,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T18:08:17+02:00</t>
+    <t>2023-12-19T12:39:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
